--- a/background_docs/Outline project plan.xlsx
+++ b/background_docs/Outline project plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\COMP0022_Coursework\background_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{11C76955-7084-41EC-A5B4-0183BD7E88AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05E84EDF-0315-4122-B9DF-33E1F843DF33}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-18120" windowWidth="29040" windowHeight="18240" xr2:uid="{FB177641-45EC-4488-95DA-7FA69FCEBEB6}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
   <si>
     <t>Week 1</t>
   </si>
@@ -69,49 +69,7 @@
     <t>Today</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Schema v1
-DB script v1
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Call - 9am</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Schema v2
-DB script v2
-+ Dummy data
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Call - 9am</t>
-    </r>
-  </si>
-  <si>
     <t>Req 1 v1</t>
-  </si>
-  <si>
-    <t>Req 2 v1
-Req 3 v1
-Req 4 v1</t>
   </si>
   <si>
     <t>Req 2 v2
@@ -182,7 +140,40 @@
     <t>(Start video - deadlines TBC)</t>
   </si>
   <si>
-    <t>+ everyday catch-up message on Slack: 1. What you did yesterday (esp. any issues) 2. What you're doing today (if anything)</t>
+    <t>Req 1 v2 
+Req 2 v1
+Req 3 v1
+Req 4 v1</t>
+  </si>
+  <si>
+    <t>+ every morning catch-up message on Slack: 1. What you did yesterday (esp. any issues) 2. What you're doing today (if anything)</t>
+  </si>
+  <si>
+    <t>(or a call)</t>
+  </si>
+  <si>
+    <t>Mehdi</t>
+  </si>
+  <si>
+    <t>Albert</t>
+  </si>
+  <si>
+    <t>Dimi</t>
+  </si>
+  <si>
+    <t>tbc</t>
+  </si>
+  <si>
+    <t>Schema v1
+DB script v1</t>
+  </si>
+  <si>
+    <t>Call</t>
+  </si>
+  <si>
+    <t>Schema v2
+DB script v2
++ Dummy data</t>
   </si>
 </sst>
 </file>
@@ -278,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -313,6 +304,13 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -627,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{890DF24E-0767-4686-B880-6E3A92BD40E3}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -654,10 +652,10 @@
         <v>9</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="77" customHeight="1" x14ac:dyDescent="0.35">
@@ -669,11 +667,13 @@
         <v>10</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3"/>
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="F2" s="5" t="s">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
@@ -683,12 +683,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="8"/>
@@ -700,11 +700,11 @@
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="8"/>
@@ -715,17 +715,17 @@
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F5" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
@@ -737,7 +737,7 @@
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
@@ -746,86 +746,138 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="C9" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="14">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>30</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="14">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="14">
+        <v>15</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="14">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
+      <c r="C13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="14">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="14">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="D12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
+      <c r="C15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="16"/>
+      <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C14" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" t="s">
+      <c r="C17" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
-        <v>32</v>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="14">
+        <f>SUM(A10:A17)</f>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
